--- a/画像取得.xlsx
+++ b/画像取得.xlsx
@@ -464,6 +464,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -946,14 +971,22 @@
       </c>
       <c r="D10" s="12" t="n"/>
     </row>
-    <row r="11" ht="58.5" customHeight="1">
+    <row r="11" ht="77" customHeight="1">
       <c r="A11" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>https://www.buyma.com/item/107182714/</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>https://cdn-images.buyma.com/imgdata/item/240531/0107182714/623187252/428.jpg</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="n"/>
     </row>
     <row r="12" ht="58.5" customHeight="1">
       <c r="A12" s="3">

--- a/画像取得.xlsx
+++ b/画像取得.xlsx
@@ -260,6 +260,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -285,6 +288,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -310,6 +316,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -335,6 +344,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -360,6 +372,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -385,6 +400,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -410,6 +428,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -435,6 +456,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -460,6 +484,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -479,6 +506,2219 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1390650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1390650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1390650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1390650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1390650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="61" name="Image 61" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="62" name="Image 62" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="63" name="Image 63" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="64" name="Image 64" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="65" name="Image 65" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1390650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="66" name="Image 66" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="67" name="Image 67" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="68" name="Image 68" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="69" name="Image 69" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="70" name="Image 70" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="71" name="Image 71" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="72" name="Image 72" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="73" name="Image 73" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="74" name="Image 74" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="75" name="Image 75" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1390650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="76" name="Image 76" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="77" name="Image 77" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="78" name="Image 78" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="79" name="Image 79" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="80" name="Image 80" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="81" name="Image 81" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="82" name="Image 82" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="83" name="Image 83" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="84" name="Image 84" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="85" name="Image 85" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1390650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="86" name="Image 86" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="87" name="Image 87" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="88" name="Image 88" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="89" name="Image 89" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="90" name="Image 90" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId90"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>

--- a/画像取得.xlsx
+++ b/画像取得.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +29,19 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -52,7 +65,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -75,15 +88,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -91,30 +124,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -222,7 +252,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="714375"/>
+    <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -372,7 +402,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="1266825"/>
+    <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -397,7 +427,7 @@
       <row>9</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="952500" cy="733425"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -422,7 +452,7 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="952500" cy="1266825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -430,6 +460,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -732,1166 +787,1152 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="3.85546875" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
-    <col width="48.5703125" customWidth="1" style="10" min="2" max="3"/>
-    <col width="3.140625" customWidth="1" style="10" min="4" max="4"/>
-    <col width="16.5703125" customWidth="1" style="10" min="5" max="5"/>
+    <col width="3.85546875" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="48.5703125" bestFit="1" customWidth="1" style="7" min="2" max="3"/>
+    <col width="3.140625" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="12.42578125" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
+    <col width="24.85546875" bestFit="1" customWidth="1" style="9" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>(work)画像URL</t>
         </is>
       </c>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>画像</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="77.09999999999999" customHeight="1">
-      <c r="A2" s="4">
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="77" customHeight="1" s="8">
+      <c r="A2" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B2" s="6" t="inlineStr">
-        <is>
-          <t>https://store.shopping.yahoo.co.jp/freelife/rgt-h02-200250.html</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>https://item-shopping.c.yimg.jp/i/n/freelife_rgt-h02-200250_i_20241021100126</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>https://jp.mercari.com/item/m23341612611</t>
+        </is>
+      </c>
+      <c r="C2" s="15" t="inlineStr">
+        <is>
+          <t>https://static.mercdn.net/item/detail/orig/photos/m23341612611_1.jpg?1734611979</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="58.35" customHeight="1">
-      <c r="A3" s="4">
+      <c r="E2" s="11" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>メルカリ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="77" customHeight="1" s="8">
+      <c r="A3" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>https://auctions.yahoo.co.jp/jp/auction/w1123979952</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>https://auctions.c.yimg.jp/images.auctions.yahoo.co.jp/image/dr000/auc0502/users/f3559cade889ae09f8a6baac1b569ce9599bcef1/i-img800x600-1707176321uuljce240144.jpg</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
+        <is>
+          <t>https://store.shopping.yahoo.co.jp/freelife/rgt-h02-200250.html</t>
+        </is>
+      </c>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>https://item-shopping.c.yimg.jp/i/n/freelife_rgt-h02-200250_i_20241021100126</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="58.35" customHeight="1">
-      <c r="A4" s="4">
+      <c r="E3" s="11" t="n"/>
+      <c r="F3" s="12" t="n"/>
+      <c r="G3" s="13" t="inlineStr">
+        <is>
+          <t>ヤフーショッピング</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="58.25" customHeight="1" s="8">
+      <c r="A4" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>https://auctions.yahoo.co.jp/jp/auction/h1179048755</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>https://auctions.c.yimg.jp/images.auctions.yahoo.co.jp/image/dr000/auc0103/user/0fc117f55280a5135fc44a2ec7f2bbd100ec825370a806ab34c4072bca65f05c/i-img1200x900-17433241911174tuymte40540.jpg</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n"/>
-    </row>
-    <row r="5" ht="77.09999999999999" customHeight="1">
-      <c r="A5" s="4">
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="12" t="n"/>
+      <c r="G4" s="13" t="inlineStr">
+        <is>
+          <t>ヤフオク</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="77" customHeight="1" s="8">
+      <c r="A5" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>https://item.rakuten.co.jp/krdirect/kr-cj4125/?s-id=top_normal_rk_hashist</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>https://shop.r10s.jp/krdirect/cabinet/newpc/cm15j_01_n95_256.jpg</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>https://paypayfleamarket.yahoo.co.jp/item/z431815528</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>https://auctions.c.yimg.jp/images.auctions.yahoo.co.jp/image/dr000/auc0104/users/1c8ef4367957c30a61e13bb6e1e2c99f6ad2998d/i-img1200x1200-1745235864614qvinsn.jpg</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="77.09999999999999" customHeight="1">
-      <c r="A6" s="4">
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t>ペイペイフリマ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="77" customHeight="1" s="8">
+      <c r="A6" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>https://item.rakuten.co.jp/pururunhime/8360_sele/</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>https://shop.r10s.jp/pururunhime/cabinet/10341737/10642760/style202405-erabujpg.jpg</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>https://item.fril.jp/bfef2f623b11bc571d302d94aacce620</t>
+        </is>
+      </c>
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>https://img.fril.jp/img/758980338/l/2563272585.JPG?1745237074</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E6" s="8" t="n"/>
-    </row>
-    <row r="7" ht="77.09999999999999" customHeight="1">
-      <c r="A7" s="4">
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>ラクマ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="77" customHeight="1" s="8">
+      <c r="A7" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>https://www.amazon.co.jp/dp/B09ZX764ZL/?ref=zcatpage_aucc_lineup&amp;th=1</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/71-sQ78sgSL._AC_SX679_.jpg</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>https://www.suruga-ya.jp/product/detail/715011289</t>
+        </is>
+      </c>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>https://cdn.suruga-ya.jp/database/pics_light/game/715011289.jpg</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="115.35" customHeight="1">
-      <c r="A8" s="4">
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>駿河屋</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="115.25" customHeight="1" s="8">
+      <c r="A8" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>https://www.amazon.co.jp/dp/B0DDP2HT3F?aref=XimReVjw1x&amp;aaxitk=da9cbfdb717aba0edddc93b94b18d030&amp;language=ja_JP&amp;pf_rd_p=90d9d1a8-9452-4445-a6fd-b4c298b2960b&amp;pf_rd_r=5RZD0F9C5JG4VN3NX6AT&amp;pd_rd_wg=YX643&amp;pd_rd_w=NZQPf&amp;pd_rd_r=5e43943c-e038-4608-b95d-6675c9a31247&amp;smid=AN1VRQENFRJN5&amp;ref=dacx_dp_579488626781210701_590031737948309934</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/41hzn43b2jL._AC_SX679_.jpg</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="C8" s="15" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41hzn43b2jL.__AC_SX300_SY300_QL70_ML2_.jpg</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n"/>
-    </row>
-    <row r="9" ht="101.85" customHeight="1">
-      <c r="A9" s="4">
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="12" t="n"/>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="77" customHeight="1" s="8">
+      <c r="A9" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/394414013548?_skw=diamond+%26+pearl&amp;epid=25043363509&amp;itmmeta=01JR316QD5X1T0Q2SCYVZQC9A7&amp;hash=item5bd4e83c6c:g:Cb4AAOSw~N1jvHzk&amp;itmprp=enc%3AAQAKAAAA8FkggFvd1GGDu0w3yXCmi1dQdbxxRMUpxKbVFT1zD4G8JQfkr43R1jTKH%2FDRiZsMHFxqSOMRG9Nhfs3fj9lmR4Q30SuAjSqeJy1JbKS8jI1A8cjD6msNYSreOYo1q9l1pLwU4BVEjL6HOeCi6JXBNuafoDun69uzL0B%2B5ugn2CWwErJOnnR8Tp9cHs6ZuB0uVIuUmXw67jtH4ns6xdPCYxXGCUAT2R5Pw0UVcfNJN9QYJlLHsG%2BN7DuTdP24XFFC0PfIK0GQ8x7vAmAW0gzMiH7I7crAmh03%2BJNxbZ81cUobi6ZBSF9JzNTTQDvUNICZUw%3D%3D%7Ctkp%3ABFBM_Paa4cBl</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>https://i.ebayimg.com/images/g/Cb4AAOSw~N1jvHzk/s-l400.jpg</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>https://item.rakuten.co.jp/pururunhime/8360_sele/</t>
+        </is>
+      </c>
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>https://shop.r10s.jp/pururunhime/cabinet/10341737/10642760/style202405-erabujpg.jpg</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="77.09999999999999" customHeight="1">
-      <c r="A10" s="4">
+      <c r="E9" s="11" t="n"/>
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t>楽天市場</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="59.75" customHeight="1" s="8">
+      <c r="A10" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>https://jp.mercari.com/item/m23341612611</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>https://static.mercdn.net/item/detail/orig/photos/m23341612611_1.jpg?1734611979</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>https://netmall.hardoff.co.jp/product/3413159/</t>
+        </is>
+      </c>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>https://p1-d9ebd2ee.imageflux.jp/c!/w=1280,h=1280,a=0,u=1,q=75/201144/IMG_1683882157423.jpg</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="77.09999999999999" customHeight="1">
-      <c r="A11" s="4">
+      <c r="E10" s="11" t="n"/>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>オフモール</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="101.75" customHeight="1" s="8">
+      <c r="A11" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>https://www.buyma.com/item/107182714/</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>https://cdn-images.buyma.com/imgdata/item/240531/0107182714/623187252/428.jpg</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>https://www.2ndstreet.jp/goods/detail/goodsId/2241300104571/shopsId/31397</t>
+        </is>
+      </c>
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>https://cdn2.2ndstreet.jp/img/pc/goods/224130/01/04571/1.jpg</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E11" s="8" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
+      <c r="E11" s="11" t="n"/>
+      <c r="F11" s="12" t="n"/>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>セカンドストリート</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="101.75" customHeight="1" s="8">
+      <c r="A12" s="3">
         <f>ROW()-1</f>
         <v/>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>https://www.okoku.jp/ec/pro/disp/1/2200003264616?sFlg=2</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>https://www.okoku.jp/ec/img/616/2200003264616/2200003264616_m.jpg</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="12" t="n"/>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>買取王国</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="12" t="n"/>
+      <c r="G13" s="13" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="12" t="n"/>
+      <c r="G14" s="13" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="12" t="n"/>
+      <c r="G15" s="13" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="12" t="n"/>
+      <c r="G16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="12" t="n"/>
+      <c r="G17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="12" t="n"/>
+      <c r="G18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="12" t="n"/>
+      <c r="G19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
+      <c r="F20" s="12" t="n"/>
+      <c r="G20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="4" t="n"/>
+      <c r="F21" s="12" t="n"/>
+      <c r="G21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="12" t="n"/>
+      <c r="G22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="12" t="n"/>
+      <c r="G23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="4" t="n"/>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="4" t="n"/>
+      <c r="F24" s="12" t="n"/>
+      <c r="G24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="12" t="n"/>
+      <c r="G25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="n"/>
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="12" t="n"/>
+      <c r="G26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="12" t="n"/>
+      <c r="G27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="12" t="n"/>
+      <c r="G28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="12" t="n"/>
+      <c r="G29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
+      <c r="A30" s="3" t="n"/>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="12" t="n"/>
+      <c r="G30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
+      <c r="A31" s="3" t="n"/>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="12" t="n"/>
+      <c r="G31" s="13" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B32" s="7" t="n"/>
-      <c r="C32" s="7" t="n"/>
-      <c r="D32" s="7" t="n"/>
-      <c r="E32" s="7" t="n"/>
+      <c r="A32" s="3" t="n"/>
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="4" t="n"/>
+      <c r="D32" s="4" t="n"/>
+      <c r="E32" s="4" t="n"/>
+      <c r="F32" s="12" t="n"/>
+      <c r="G32" s="13" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B33" s="7" t="n"/>
-      <c r="C33" s="7" t="n"/>
-      <c r="D33" s="7" t="n"/>
-      <c r="E33" s="7" t="n"/>
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="4" t="n"/>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="4" t="n"/>
+      <c r="F33" s="12" t="n"/>
+      <c r="G33" s="13" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B34" s="7" t="n"/>
-      <c r="C34" s="7" t="n"/>
-      <c r="D34" s="7" t="n"/>
-      <c r="E34" s="7" t="n"/>
+      <c r="A34" s="3" t="n"/>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="4" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="4" t="n"/>
+      <c r="F34" s="12" t="n"/>
+      <c r="G34" s="13" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="4" t="n"/>
+      <c r="C35" s="4" t="n"/>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="4" t="n"/>
+      <c r="F35" s="12" t="n"/>
+      <c r="G35" s="13" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
+      <c r="A36" s="3" t="n"/>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="4" t="n"/>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="4" t="n"/>
+      <c r="F36" s="12" t="n"/>
+      <c r="G36" s="13" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="4" t="n"/>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="4" t="n"/>
+      <c r="F37" s="12" t="n"/>
+      <c r="G37" s="13" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
+      <c r="A38" s="3" t="n"/>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="4" t="n"/>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="12" t="n"/>
+      <c r="G38" s="13" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
-      <c r="D39" s="7" t="n"/>
-      <c r="E39" s="7" t="n"/>
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="12" t="n"/>
+      <c r="G39" s="13" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-      <c r="D40" s="7" t="n"/>
-      <c r="E40" s="7" t="n"/>
+      <c r="A40" s="3" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="12" t="n"/>
+      <c r="G40" s="13" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="12" t="n"/>
+      <c r="G41" s="13" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-      <c r="D42" s="7" t="n"/>
-      <c r="E42" s="7" t="n"/>
+      <c r="A42" s="3" t="n"/>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="12" t="n"/>
+      <c r="G42" s="13" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="n"/>
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="12" t="n"/>
+      <c r="G43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
-      <c r="D44" s="7" t="n"/>
-      <c r="E44" s="7" t="n"/>
+      <c r="A44" s="3" t="n"/>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="12" t="n"/>
+      <c r="G44" s="13" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B45" s="7" t="n"/>
-      <c r="C45" s="7" t="n"/>
-      <c r="D45" s="7" t="n"/>
-      <c r="E45" s="7" t="n"/>
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="12" t="n"/>
+      <c r="G45" s="13" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B46" s="7" t="n"/>
-      <c r="C46" s="7" t="n"/>
-      <c r="D46" s="7" t="n"/>
-      <c r="E46" s="7" t="n"/>
+      <c r="A46" s="3" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="12" t="n"/>
+      <c r="G46" s="13" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B47" s="7" t="n"/>
-      <c r="C47" s="7" t="n"/>
-      <c r="D47" s="7" t="n"/>
-      <c r="E47" s="7" t="n"/>
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="12" t="n"/>
+      <c r="G47" s="13" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B48" s="7" t="n"/>
-      <c r="C48" s="7" t="n"/>
-      <c r="D48" s="7" t="n"/>
-      <c r="E48" s="7" t="n"/>
+      <c r="A48" s="3" t="n"/>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="12" t="n"/>
+      <c r="G48" s="13" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B49" s="7" t="n"/>
-      <c r="C49" s="7" t="n"/>
-      <c r="D49" s="7" t="n"/>
-      <c r="E49" s="7" t="n"/>
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="12" t="n"/>
+      <c r="G49" s="13" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B50" s="7" t="n"/>
-      <c r="C50" s="7" t="n"/>
-      <c r="D50" s="7" t="n"/>
-      <c r="E50" s="7" t="n"/>
+      <c r="A50" s="3" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="12" t="n"/>
+      <c r="G50" s="13" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B51" s="7" t="n"/>
-      <c r="C51" s="7" t="n"/>
-      <c r="D51" s="7" t="n"/>
-      <c r="E51" s="7" t="n"/>
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="12" t="n"/>
+      <c r="G51" s="13" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B52" s="7" t="n"/>
-      <c r="C52" s="7" t="n"/>
-      <c r="D52" s="7" t="n"/>
-      <c r="E52" s="7" t="n"/>
+      <c r="A52" s="3" t="n"/>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="12" t="n"/>
+      <c r="G52" s="13" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B53" s="7" t="n"/>
-      <c r="C53" s="7" t="n"/>
-      <c r="D53" s="7" t="n"/>
-      <c r="E53" s="7" t="n"/>
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="12" t="n"/>
+      <c r="G53" s="13" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B54" s="7" t="n"/>
-      <c r="C54" s="7" t="n"/>
-      <c r="D54" s="7" t="n"/>
-      <c r="E54" s="7" t="n"/>
+      <c r="A54" s="3" t="n"/>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="13" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B55" s="7" t="n"/>
-      <c r="C55" s="7" t="n"/>
-      <c r="D55" s="7" t="n"/>
-      <c r="E55" s="7" t="n"/>
+      <c r="A55" s="3" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="12" t="n"/>
+      <c r="G55" s="13" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B56" s="7" t="n"/>
-      <c r="C56" s="7" t="n"/>
-      <c r="D56" s="7" t="n"/>
-      <c r="E56" s="7" t="n"/>
+      <c r="A56" s="3" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="12" t="n"/>
+      <c r="G56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B57" s="7" t="n"/>
-      <c r="C57" s="7" t="n"/>
-      <c r="D57" s="7" t="n"/>
-      <c r="E57" s="7" t="n"/>
+      <c r="A57" s="3" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="12" t="n"/>
+      <c r="G57" s="13" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B58" s="7" t="n"/>
-      <c r="C58" s="7" t="n"/>
-      <c r="D58" s="7" t="n"/>
-      <c r="E58" s="7" t="n"/>
+      <c r="A58" s="3" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="12" t="n"/>
+      <c r="G58" s="13" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B59" s="7" t="n"/>
-      <c r="C59" s="7" t="n"/>
-      <c r="D59" s="7" t="n"/>
-      <c r="E59" s="7" t="n"/>
+      <c r="A59" s="3" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="12" t="n"/>
+      <c r="G59" s="13" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B60" s="7" t="n"/>
-      <c r="C60" s="7" t="n"/>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
+      <c r="A60" s="3" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="12" t="n"/>
+      <c r="G60" s="13" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B61" s="7" t="n"/>
-      <c r="C61" s="7" t="n"/>
-      <c r="D61" s="7" t="n"/>
-      <c r="E61" s="7" t="n"/>
+      <c r="A61" s="3" t="n"/>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="12" t="n"/>
+      <c r="G61" s="13" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B62" s="7" t="n"/>
-      <c r="C62" s="7" t="n"/>
-      <c r="D62" s="7" t="n"/>
-      <c r="E62" s="7" t="n"/>
+      <c r="A62" s="3" t="n"/>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="12" t="n"/>
+      <c r="G62" s="13" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B63" s="7" t="n"/>
-      <c r="C63" s="7" t="n"/>
-      <c r="D63" s="7" t="n"/>
-      <c r="E63" s="7" t="n"/>
+      <c r="A63" s="3" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="12" t="n"/>
+      <c r="G63" s="13" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B64" s="7" t="n"/>
-      <c r="C64" s="7" t="n"/>
-      <c r="D64" s="7" t="n"/>
-      <c r="E64" s="7" t="n"/>
+      <c r="A64" s="3" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="12" t="n"/>
+      <c r="G64" s="13" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B65" s="7" t="n"/>
-      <c r="C65" s="7" t="n"/>
-      <c r="D65" s="7" t="n"/>
-      <c r="E65" s="7" t="n"/>
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="12" t="n"/>
+      <c r="G65" s="13" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B66" s="7" t="n"/>
-      <c r="C66" s="7" t="n"/>
-      <c r="D66" s="7" t="n"/>
-      <c r="E66" s="7" t="n"/>
+      <c r="A66" s="3" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="12" t="n"/>
+      <c r="G66" s="13" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B67" s="7" t="n"/>
-      <c r="C67" s="7" t="n"/>
-      <c r="D67" s="7" t="n"/>
-      <c r="E67" s="7" t="n"/>
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="12" t="n"/>
+      <c r="G67" s="13" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B68" s="7" t="n"/>
-      <c r="C68" s="7" t="n"/>
-      <c r="D68" s="7" t="n"/>
-      <c r="E68" s="7" t="n"/>
+      <c r="A68" s="3" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="12" t="n"/>
+      <c r="G68" s="13" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B69" s="7" t="n"/>
-      <c r="C69" s="7" t="n"/>
-      <c r="D69" s="7" t="n"/>
-      <c r="E69" s="7" t="n"/>
+      <c r="A69" s="3" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="12" t="n"/>
+      <c r="G69" s="13" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B70" s="7" t="n"/>
-      <c r="C70" s="7" t="n"/>
-      <c r="D70" s="7" t="n"/>
-      <c r="E70" s="7" t="n"/>
+      <c r="A70" s="3" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="12" t="n"/>
+      <c r="G70" s="13" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B71" s="7" t="n"/>
-      <c r="C71" s="7" t="n"/>
-      <c r="D71" s="7" t="n"/>
-      <c r="E71" s="7" t="n"/>
+      <c r="A71" s="3" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="12" t="n"/>
+      <c r="G71" s="13" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B72" s="7" t="n"/>
-      <c r="C72" s="7" t="n"/>
-      <c r="D72" s="7" t="n"/>
-      <c r="E72" s="7" t="n"/>
+      <c r="A72" s="3" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="12" t="n"/>
+      <c r="G72" s="13" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B73" s="7" t="n"/>
-      <c r="C73" s="7" t="n"/>
-      <c r="D73" s="7" t="n"/>
-      <c r="E73" s="7" t="n"/>
+      <c r="A73" s="3" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="12" t="n"/>
+      <c r="G73" s="13" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B74" s="7" t="n"/>
-      <c r="C74" s="7" t="n"/>
-      <c r="D74" s="7" t="n"/>
-      <c r="E74" s="7" t="n"/>
+      <c r="A74" s="3" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="12" t="n"/>
+      <c r="G74" s="13" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B75" s="7" t="n"/>
-      <c r="C75" s="7" t="n"/>
-      <c r="D75" s="7" t="n"/>
-      <c r="E75" s="7" t="n"/>
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="12" t="n"/>
+      <c r="G75" s="13" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B76" s="7" t="n"/>
-      <c r="C76" s="7" t="n"/>
-      <c r="D76" s="7" t="n"/>
-      <c r="E76" s="7" t="n"/>
+      <c r="A76" s="3" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="12" t="n"/>
+      <c r="G76" s="13" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B77" s="7" t="n"/>
-      <c r="C77" s="7" t="n"/>
-      <c r="D77" s="7" t="n"/>
-      <c r="E77" s="7" t="n"/>
+      <c r="A77" s="3" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="12" t="n"/>
+      <c r="G77" s="13" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B78" s="7" t="n"/>
-      <c r="C78" s="7" t="n"/>
-      <c r="D78" s="7" t="n"/>
-      <c r="E78" s="7" t="n"/>
+      <c r="A78" s="3" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="12" t="n"/>
+      <c r="G78" s="13" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B79" s="7" t="n"/>
-      <c r="C79" s="7" t="n"/>
-      <c r="D79" s="7" t="n"/>
-      <c r="E79" s="7" t="n"/>
+      <c r="A79" s="3" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="12" t="n"/>
+      <c r="G79" s="13" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B80" s="7" t="n"/>
-      <c r="C80" s="7" t="n"/>
-      <c r="D80" s="7" t="n"/>
-      <c r="E80" s="7" t="n"/>
+      <c r="A80" s="3" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="12" t="n"/>
+      <c r="G80" s="13" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B81" s="7" t="n"/>
-      <c r="C81" s="7" t="n"/>
-      <c r="D81" s="7" t="n"/>
-      <c r="E81" s="7" t="n"/>
+      <c r="A81" s="3" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="12" t="n"/>
+      <c r="G81" s="13" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B82" s="7" t="n"/>
-      <c r="C82" s="7" t="n"/>
-      <c r="D82" s="7" t="n"/>
-      <c r="E82" s="7" t="n"/>
+      <c r="A82" s="3" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="12" t="n"/>
+      <c r="G82" s="13" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B83" s="7" t="n"/>
-      <c r="C83" s="7" t="n"/>
-      <c r="D83" s="7" t="n"/>
-      <c r="E83" s="7" t="n"/>
+      <c r="A83" s="3" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="12" t="n"/>
+      <c r="G83" s="13" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B84" s="7" t="n"/>
-      <c r="C84" s="7" t="n"/>
-      <c r="D84" s="7" t="n"/>
-      <c r="E84" s="7" t="n"/>
+      <c r="A84" s="3" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="12" t="n"/>
+      <c r="G84" s="13" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B85" s="7" t="n"/>
-      <c r="C85" s="7" t="n"/>
-      <c r="D85" s="7" t="n"/>
-      <c r="E85" s="7" t="n"/>
+      <c r="A85" s="3" t="n"/>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="4" t="n"/>
+      <c r="D85" s="4" t="n"/>
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="12" t="n"/>
+      <c r="G85" s="13" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B86" s="7" t="n"/>
-      <c r="C86" s="7" t="n"/>
-      <c r="D86" s="7" t="n"/>
-      <c r="E86" s="7" t="n"/>
+      <c r="A86" s="3" t="n"/>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="4" t="n"/>
+      <c r="D86" s="4" t="n"/>
+      <c r="E86" s="4" t="n"/>
+      <c r="F86" s="12" t="n"/>
+      <c r="G86" s="13" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B87" s="7" t="n"/>
-      <c r="C87" s="7" t="n"/>
-      <c r="D87" s="7" t="n"/>
-      <c r="E87" s="7" t="n"/>
+      <c r="A87" s="3" t="n"/>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="4" t="n"/>
+      <c r="D87" s="4" t="n"/>
+      <c r="E87" s="4" t="n"/>
+      <c r="F87" s="12" t="n"/>
+      <c r="G87" s="13" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B88" s="7" t="n"/>
-      <c r="C88" s="7" t="n"/>
-      <c r="D88" s="7" t="n"/>
-      <c r="E88" s="7" t="n"/>
+      <c r="A88" s="3" t="n"/>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="4" t="n"/>
+      <c r="D88" s="4" t="n"/>
+      <c r="E88" s="4" t="n"/>
+      <c r="F88" s="12" t="n"/>
+      <c r="G88" s="13" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B89" s="7" t="n"/>
-      <c r="C89" s="7" t="n"/>
-      <c r="D89" s="7" t="n"/>
-      <c r="E89" s="7" t="n"/>
+      <c r="A89" s="3" t="n"/>
+      <c r="B89" s="4" t="n"/>
+      <c r="C89" s="4" t="n"/>
+      <c r="D89" s="4" t="n"/>
+      <c r="E89" s="4" t="n"/>
+      <c r="F89" s="12" t="n"/>
+      <c r="G89" s="13" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B90" s="7" t="n"/>
-      <c r="C90" s="7" t="n"/>
-      <c r="D90" s="7" t="n"/>
-      <c r="E90" s="7" t="n"/>
+      <c r="A90" s="3" t="n"/>
+      <c r="B90" s="4" t="n"/>
+      <c r="C90" s="4" t="n"/>
+      <c r="D90" s="4" t="n"/>
+      <c r="E90" s="4" t="n"/>
+      <c r="F90" s="12" t="n"/>
+      <c r="G90" s="13" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B91" s="7" t="n"/>
-      <c r="C91" s="7" t="n"/>
-      <c r="D91" s="7" t="n"/>
-      <c r="E91" s="7" t="n"/>
+      <c r="A91" s="3" t="n"/>
+      <c r="B91" s="4" t="n"/>
+      <c r="C91" s="4" t="n"/>
+      <c r="D91" s="4" t="n"/>
+      <c r="E91" s="4" t="n"/>
+      <c r="F91" s="12" t="n"/>
+      <c r="G91" s="13" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B92" s="7" t="n"/>
-      <c r="C92" s="7" t="n"/>
-      <c r="D92" s="7" t="n"/>
-      <c r="E92" s="7" t="n"/>
+      <c r="A92" s="3" t="n"/>
+      <c r="B92" s="4" t="n"/>
+      <c r="C92" s="4" t="n"/>
+      <c r="D92" s="4" t="n"/>
+      <c r="E92" s="4" t="n"/>
+      <c r="F92" s="12" t="n"/>
+      <c r="G92" s="13" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B93" s="7" t="n"/>
-      <c r="C93" s="7" t="n"/>
-      <c r="D93" s="7" t="n"/>
-      <c r="E93" s="7" t="n"/>
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="4" t="n"/>
+      <c r="C93" s="4" t="n"/>
+      <c r="D93" s="4" t="n"/>
+      <c r="E93" s="4" t="n"/>
+      <c r="F93" s="12" t="n"/>
+      <c r="G93" s="13" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B94" s="7" t="n"/>
-      <c r="C94" s="7" t="n"/>
-      <c r="D94" s="7" t="n"/>
-      <c r="E94" s="7" t="n"/>
+      <c r="A94" s="3" t="n"/>
+      <c r="B94" s="4" t="n"/>
+      <c r="C94" s="4" t="n"/>
+      <c r="D94" s="4" t="n"/>
+      <c r="E94" s="4" t="n"/>
+      <c r="F94" s="12" t="n"/>
+      <c r="G94" s="13" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B95" s="7" t="n"/>
-      <c r="C95" s="7" t="n"/>
-      <c r="D95" s="7" t="n"/>
-      <c r="E95" s="7" t="n"/>
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="4" t="n"/>
+      <c r="C95" s="4" t="n"/>
+      <c r="D95" s="4" t="n"/>
+      <c r="E95" s="4" t="n"/>
+      <c r="F95" s="12" t="n"/>
+      <c r="G95" s="13" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B96" s="7" t="n"/>
-      <c r="C96" s="7" t="n"/>
-      <c r="D96" s="7" t="n"/>
-      <c r="E96" s="7" t="n"/>
+      <c r="A96" s="3" t="n"/>
+      <c r="B96" s="4" t="n"/>
+      <c r="C96" s="4" t="n"/>
+      <c r="D96" s="4" t="n"/>
+      <c r="E96" s="4" t="n"/>
+      <c r="F96" s="12" t="n"/>
+      <c r="G96" s="13" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B97" s="7" t="n"/>
-      <c r="C97" s="7" t="n"/>
-      <c r="D97" s="7" t="n"/>
-      <c r="E97" s="7" t="n"/>
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="4" t="n"/>
+      <c r="C97" s="4" t="n"/>
+      <c r="D97" s="4" t="n"/>
+      <c r="E97" s="4" t="n"/>
+      <c r="F97" s="12" t="n"/>
+      <c r="G97" s="13" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B98" s="7" t="n"/>
-      <c r="C98" s="7" t="n"/>
-      <c r="D98" s="7" t="n"/>
-      <c r="E98" s="7" t="n"/>
+      <c r="A98" s="3" t="n"/>
+      <c r="B98" s="4" t="n"/>
+      <c r="C98" s="4" t="n"/>
+      <c r="D98" s="4" t="n"/>
+      <c r="E98" s="4" t="n"/>
+      <c r="F98" s="12" t="n"/>
+      <c r="G98" s="13" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B99" s="7" t="n"/>
-      <c r="C99" s="7" t="n"/>
-      <c r="D99" s="7" t="n"/>
-      <c r="E99" s="7" t="n"/>
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="4" t="n"/>
+      <c r="C99" s="4" t="n"/>
+      <c r="D99" s="4" t="n"/>
+      <c r="E99" s="4" t="n"/>
+      <c r="F99" s="12" t="n"/>
+      <c r="G99" s="13" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B100" s="7" t="n"/>
-      <c r="C100" s="7" t="n"/>
-      <c r="D100" s="7" t="n"/>
-      <c r="E100" s="7" t="n"/>
+      <c r="A100" s="3" t="n"/>
+      <c r="B100" s="4" t="n"/>
+      <c r="C100" s="4" t="n"/>
+      <c r="D100" s="4" t="n"/>
+      <c r="E100" s="4" t="n"/>
+      <c r="F100" s="12" t="n"/>
+      <c r="G100" s="13" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="4">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B101" s="7" t="n"/>
-      <c r="C101" s="7" t="n"/>
-      <c r="D101" s="7" t="n"/>
-      <c r="E101" s="7" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="9" t="n"/>
-      <c r="B102" s="10" t="n"/>
-      <c r="C102" s="10" t="n"/>
-      <c r="D102" s="10" t="n"/>
-      <c r="E102" s="10" t="n"/>
+      <c r="A101" s="3" t="n"/>
+      <c r="B101" s="4" t="n"/>
+      <c r="C101" s="4" t="n"/>
+      <c r="D101" s="4" t="n"/>
+      <c r="E101" s="4" t="n"/>
+      <c r="F101" s="12" t="n"/>
+      <c r="G101" s="13" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1909,14 +1950,16 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId12"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" display="https://www.amazon.co.jp/dp/B0DDP2HT3F?aref=XimReVjw1x&amp;aaxitk=da9cbfdb717aba0edddc93b94b18d030&amp;language=ja_JP&amp;pf_rd_p=90d9d1a8-9452-4445-a6fd-b4c298b2960b&amp;pf_rd_r=5RZD0F9C5JG4VN3NX6AT&amp;pd_rd_wg=YX643&amp;pd_rd_w=NZQPf&amp;pd_rd_r=5e43943c-e038-4608-b95d-6675c9a31247&amp;smid=AN1VRQENFRJN5&amp;ref=dacx_dp_579488626781210701_590031737948309934" r:id="rId13"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" display="https://www.ebay.com/itm/394414013548?_skw=diamond+%26+pearl&amp;epid=25043363509&amp;itmmeta=01JR316QD5X1T0Q2SCYVZQC9A7&amp;hash=item5bd4e83c6c:g:Cb4AAOSw~N1jvHzk&amp;itmprp=enc%3AAQAKAAAA8FkggFvd1GGDu0w3yXCmi1dQdbxxRMUpxKbVFT1zD4G8JQfkr43R1jTKH%2FDRiZsMHFxqSOMRG9Nhfs3fj9lmR4Q30SuAjSqeJy1JbKS8jI1A8cjD6msNYSreOYo1q9l1pLwU4BVEjL6HOeCi6JXBNuafoDun69uzL0B%2B5ugn2CWwErJOnnR8Tp9cHs6ZuB0uVIuUmXw67jtH4ns6xdPCYxXGCUAT2R5Pw0UVcfNJN9QYJlLHsG%2BN7DuTdP24XFFC0PfIK0GQ8x7vAmAW0gzMiH7I7crAmh03%2BJNxbZ81cUobi6ZBSF9JzNTTQDvUNICZUw%3D%3D%7Ctkp%3ABFBM_Paa4cBl" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId15"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId16"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId17"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId18"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId19"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
 </worksheet>
 </file>
--- a/画像取得.xlsx
+++ b/画像取得.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,6 +49,13 @@
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -96,12 +103,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -140,11 +148,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="2"/>
+    <cellStyle name="Normal" xfId="3" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -224,7 +234,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -249,10 +259,10 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="952500" cy="714375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -274,10 +284,10 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>3</row>
+      <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="714375"/>
+    <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -299,7 +309,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>4</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -324,7 +334,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>6</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -349,10 +359,10 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="952500" cy="1638300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -374,10 +384,10 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>7</row>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="1438275"/>
+    <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -399,10 +409,10 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>8</row>
+      <row>9</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="952500" cy="733425"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -424,10 +434,10 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="733425"/>
+    <ext cx="952500" cy="1266825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -449,7 +459,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="1266825"/>
@@ -460,31 +470,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="952500" cy="1266825"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -799,7 +784,7 @@
     <col width="3.85546875" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
     <col width="48.5703125" bestFit="1" customWidth="1" style="7" min="2" max="3"/>
     <col width="3.140625" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="20.28571428571428" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
     <col width="12.42578125" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
     <col width="24.85546875" bestFit="1" customWidth="1" style="9" min="7" max="7"/>
   </cols>
@@ -825,7 +810,7 @@
       <c r="F1" s="12" t="n"/>
       <c r="G1" s="13" t="n"/>
     </row>
-    <row r="2" ht="77" customHeight="1" s="8">
+    <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="3">
         <f>ROW()-1</f>
         <v/>
@@ -837,7 +822,7 @@
       </c>
       <c r="C2" s="15" t="inlineStr">
         <is>
-          <t>https://static.mercdn.net/item/detail/orig/photos/m23341612611_1.jpg?1734611979</t>
+          <t>https://www.facebook.com/tr</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -845,7 +830,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E2" s="11" t="n"/>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>画像DL/処理失敗</t>
+        </is>
+      </c>
       <c r="F2" s="12" t="n"/>
       <c r="G2" s="13" t="inlineStr">
         <is>
@@ -993,7 +982,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="115.25" customHeight="1" s="8">
+    <row r="8" ht="131" customHeight="1" s="8">
       <c r="A8" s="3">
         <f>ROW()-1</f>
         <v/>
@@ -1005,7 +994,7 @@
       </c>
       <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41hzn43b2jL.__AC_SX300_SY300_QL70_ML2_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51Iewz4sX5L.__AC_SX300_SY300_QL70_ML2_.jpg</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1136,7 +1125,7 @@
     <row r="13">
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
+      <c r="C13" s="16" t="n"/>
       <c r="D13" s="4" t="n"/>
       <c r="E13" s="4" t="n"/>
       <c r="F13" s="12" t="n"/>
@@ -1145,7 +1134,7 @@
     <row r="14">
       <c r="A14" s="3" t="n"/>
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
+      <c r="C14" s="16" t="n"/>
       <c r="D14" s="4" t="n"/>
       <c r="E14" s="4" t="n"/>
       <c r="F14" s="12" t="n"/>
@@ -1154,7 +1143,7 @@
     <row r="15">
       <c r="A15" s="3" t="n"/>
       <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
+      <c r="C15" s="16" t="n"/>
       <c r="D15" s="4" t="n"/>
       <c r="E15" s="4" t="n"/>
       <c r="F15" s="12" t="n"/>
@@ -1163,7 +1152,7 @@
     <row r="16">
       <c r="A16" s="3" t="n"/>
       <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
+      <c r="C16" s="16" t="n"/>
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="4" t="n"/>
       <c r="F16" s="12" t="n"/>
@@ -1172,7 +1161,7 @@
     <row r="17">
       <c r="A17" s="3" t="n"/>
       <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
+      <c r="C17" s="16" t="n"/>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
       <c r="F17" s="12" t="n"/>
@@ -1181,7 +1170,7 @@
     <row r="18">
       <c r="A18" s="3" t="n"/>
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n"/>
+      <c r="C18" s="16" t="n"/>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
       <c r="F18" s="12" t="n"/>
@@ -1190,7 +1179,7 @@
     <row r="19">
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
+      <c r="C19" s="16" t="n"/>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
       <c r="F19" s="12" t="n"/>
@@ -1199,7 +1188,7 @@
     <row r="20">
       <c r="A20" s="3" t="n"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="n"/>
+      <c r="C20" s="16" t="n"/>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
       <c r="F20" s="12" t="n"/>
@@ -1208,7 +1197,7 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
       <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="n"/>
+      <c r="C21" s="16" t="n"/>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
       <c r="F21" s="12" t="n"/>
@@ -1217,7 +1206,7 @@
     <row r="22">
       <c r="A22" s="3" t="n"/>
       <c r="B22" s="4" t="n"/>
-      <c r="C22" s="4" t="n"/>
+      <c r="C22" s="16" t="n"/>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
       <c r="F22" s="12" t="n"/>
@@ -1226,7 +1215,7 @@
     <row r="23">
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="n"/>
+      <c r="C23" s="16" t="n"/>
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="4" t="n"/>
       <c r="F23" s="12" t="n"/>
@@ -1235,7 +1224,7 @@
     <row r="24">
       <c r="A24" s="3" t="n"/>
       <c r="B24" s="4" t="n"/>
-      <c r="C24" s="4" t="n"/>
+      <c r="C24" s="16" t="n"/>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
       <c r="F24" s="12" t="n"/>
@@ -1244,7 +1233,7 @@
     <row r="25">
       <c r="A25" s="3" t="n"/>
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="n"/>
+      <c r="C25" s="16" t="n"/>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n"/>
       <c r="F25" s="12" t="n"/>
@@ -1253,7 +1242,7 @@
     <row r="26">
       <c r="A26" s="3" t="n"/>
       <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
+      <c r="C26" s="16" t="n"/>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
       <c r="F26" s="12" t="n"/>
@@ -1262,7 +1251,7 @@
     <row r="27">
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
+      <c r="C27" s="16" t="n"/>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
       <c r="F27" s="12" t="n"/>
@@ -1271,7 +1260,7 @@
     <row r="28">
       <c r="A28" s="3" t="n"/>
       <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
+      <c r="C28" s="16" t="n"/>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
       <c r="F28" s="12" t="n"/>
@@ -1280,7 +1269,7 @@
     <row r="29">
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
+      <c r="C29" s="16" t="n"/>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
       <c r="F29" s="12" t="n"/>
@@ -1289,7 +1278,7 @@
     <row r="30">
       <c r="A30" s="3" t="n"/>
       <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
+      <c r="C30" s="16" t="n"/>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
       <c r="F30" s="12" t="n"/>
@@ -1298,7 +1287,7 @@
     <row r="31">
       <c r="A31" s="3" t="n"/>
       <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
+      <c r="C31" s="16" t="n"/>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
       <c r="F31" s="12" t="n"/>
@@ -1307,7 +1296,7 @@
     <row r="32">
       <c r="A32" s="3" t="n"/>
       <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
+      <c r="C32" s="16" t="n"/>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
       <c r="F32" s="12" t="n"/>
@@ -1316,7 +1305,7 @@
     <row r="33">
       <c r="A33" s="3" t="n"/>
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="4" t="n"/>
+      <c r="C33" s="16" t="n"/>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
       <c r="F33" s="12" t="n"/>
@@ -1325,7 +1314,7 @@
     <row r="34">
       <c r="A34" s="3" t="n"/>
       <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="n"/>
+      <c r="C34" s="16" t="n"/>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="12" t="n"/>
@@ -1334,7 +1323,7 @@
     <row r="35">
       <c r="A35" s="3" t="n"/>
       <c r="B35" s="4" t="n"/>
-      <c r="C35" s="4" t="n"/>
+      <c r="C35" s="16" t="n"/>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="12" t="n"/>
@@ -1343,7 +1332,7 @@
     <row r="36">
       <c r="A36" s="3" t="n"/>
       <c r="B36" s="4" t="n"/>
-      <c r="C36" s="4" t="n"/>
+      <c r="C36" s="16" t="n"/>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
       <c r="F36" s="12" t="n"/>
@@ -1352,7 +1341,7 @@
     <row r="37">
       <c r="A37" s="3" t="n"/>
       <c r="B37" s="4" t="n"/>
-      <c r="C37" s="4" t="n"/>
+      <c r="C37" s="16" t="n"/>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
       <c r="F37" s="12" t="n"/>
@@ -1361,7 +1350,7 @@
     <row r="38">
       <c r="A38" s="3" t="n"/>
       <c r="B38" s="4" t="n"/>
-      <c r="C38" s="4" t="n"/>
+      <c r="C38" s="16" t="n"/>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
       <c r="F38" s="12" t="n"/>
@@ -1370,7 +1359,7 @@
     <row r="39">
       <c r="A39" s="3" t="n"/>
       <c r="B39" s="4" t="n"/>
-      <c r="C39" s="4" t="n"/>
+      <c r="C39" s="16" t="n"/>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
       <c r="F39" s="12" t="n"/>
@@ -1379,7 +1368,7 @@
     <row r="40">
       <c r="A40" s="3" t="n"/>
       <c r="B40" s="4" t="n"/>
-      <c r="C40" s="4" t="n"/>
+      <c r="C40" s="16" t="n"/>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
       <c r="F40" s="12" t="n"/>
@@ -1388,7 +1377,7 @@
     <row r="41">
       <c r="A41" s="3" t="n"/>
       <c r="B41" s="4" t="n"/>
-      <c r="C41" s="4" t="n"/>
+      <c r="C41" s="16" t="n"/>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
       <c r="F41" s="12" t="n"/>
@@ -1397,7 +1386,7 @@
     <row r="42">
       <c r="A42" s="3" t="n"/>
       <c r="B42" s="4" t="n"/>
-      <c r="C42" s="4" t="n"/>
+      <c r="C42" s="16" t="n"/>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
       <c r="F42" s="12" t="n"/>
@@ -1406,7 +1395,7 @@
     <row r="43">
       <c r="A43" s="3" t="n"/>
       <c r="B43" s="4" t="n"/>
-      <c r="C43" s="4" t="n"/>
+      <c r="C43" s="16" t="n"/>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
       <c r="F43" s="12" t="n"/>
@@ -1415,7 +1404,7 @@
     <row r="44">
       <c r="A44" s="3" t="n"/>
       <c r="B44" s="4" t="n"/>
-      <c r="C44" s="4" t="n"/>
+      <c r="C44" s="16" t="n"/>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
       <c r="F44" s="12" t="n"/>
@@ -1424,7 +1413,7 @@
     <row r="45">
       <c r="A45" s="3" t="n"/>
       <c r="B45" s="4" t="n"/>
-      <c r="C45" s="4" t="n"/>
+      <c r="C45" s="16" t="n"/>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
       <c r="F45" s="12" t="n"/>
@@ -1433,7 +1422,7 @@
     <row r="46">
       <c r="A46" s="3" t="n"/>
       <c r="B46" s="4" t="n"/>
-      <c r="C46" s="4" t="n"/>
+      <c r="C46" s="16" t="n"/>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
       <c r="F46" s="12" t="n"/>
@@ -1442,7 +1431,7 @@
     <row r="47">
       <c r="A47" s="3" t="n"/>
       <c r="B47" s="4" t="n"/>
-      <c r="C47" s="4" t="n"/>
+      <c r="C47" s="16" t="n"/>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
       <c r="F47" s="12" t="n"/>
@@ -1451,7 +1440,7 @@
     <row r="48">
       <c r="A48" s="3" t="n"/>
       <c r="B48" s="4" t="n"/>
-      <c r="C48" s="4" t="n"/>
+      <c r="C48" s="16" t="n"/>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
       <c r="F48" s="12" t="n"/>
@@ -1460,7 +1449,7 @@
     <row r="49">
       <c r="A49" s="3" t="n"/>
       <c r="B49" s="4" t="n"/>
-      <c r="C49" s="4" t="n"/>
+      <c r="C49" s="16" t="n"/>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
       <c r="F49" s="12" t="n"/>
@@ -1469,7 +1458,7 @@
     <row r="50">
       <c r="A50" s="3" t="n"/>
       <c r="B50" s="4" t="n"/>
-      <c r="C50" s="4" t="n"/>
+      <c r="C50" s="16" t="n"/>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
       <c r="F50" s="12" t="n"/>
@@ -1478,7 +1467,7 @@
     <row r="51">
       <c r="A51" s="3" t="n"/>
       <c r="B51" s="4" t="n"/>
-      <c r="C51" s="4" t="n"/>
+      <c r="C51" s="16" t="n"/>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
       <c r="F51" s="12" t="n"/>
@@ -1487,7 +1476,7 @@
     <row r="52">
       <c r="A52" s="3" t="n"/>
       <c r="B52" s="4" t="n"/>
-      <c r="C52" s="4" t="n"/>
+      <c r="C52" s="16" t="n"/>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
       <c r="F52" s="12" t="n"/>
@@ -1496,7 +1485,7 @@
     <row r="53">
       <c r="A53" s="3" t="n"/>
       <c r="B53" s="4" t="n"/>
-      <c r="C53" s="4" t="n"/>
+      <c r="C53" s="16" t="n"/>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
       <c r="F53" s="12" t="n"/>
@@ -1505,7 +1494,7 @@
     <row r="54">
       <c r="A54" s="3" t="n"/>
       <c r="B54" s="4" t="n"/>
-      <c r="C54" s="4" t="n"/>
+      <c r="C54" s="16" t="n"/>
       <c r="D54" s="4" t="n"/>
       <c r="E54" s="4" t="n"/>
       <c r="F54" s="12" t="n"/>
@@ -1514,7 +1503,7 @@
     <row r="55">
       <c r="A55" s="3" t="n"/>
       <c r="B55" s="4" t="n"/>
-      <c r="C55" s="4" t="n"/>
+      <c r="C55" s="16" t="n"/>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
       <c r="F55" s="12" t="n"/>
@@ -1523,7 +1512,7 @@
     <row r="56">
       <c r="A56" s="3" t="n"/>
       <c r="B56" s="4" t="n"/>
-      <c r="C56" s="4" t="n"/>
+      <c r="C56" s="16" t="n"/>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
       <c r="F56" s="12" t="n"/>
@@ -1532,7 +1521,7 @@
     <row r="57">
       <c r="A57" s="3" t="n"/>
       <c r="B57" s="4" t="n"/>
-      <c r="C57" s="4" t="n"/>
+      <c r="C57" s="16" t="n"/>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
       <c r="F57" s="12" t="n"/>
@@ -1541,7 +1530,7 @@
     <row r="58">
       <c r="A58" s="3" t="n"/>
       <c r="B58" s="4" t="n"/>
-      <c r="C58" s="4" t="n"/>
+      <c r="C58" s="16" t="n"/>
       <c r="D58" s="4" t="n"/>
       <c r="E58" s="4" t="n"/>
       <c r="F58" s="12" t="n"/>
@@ -1550,7 +1539,7 @@
     <row r="59">
       <c r="A59" s="3" t="n"/>
       <c r="B59" s="4" t="n"/>
-      <c r="C59" s="4" t="n"/>
+      <c r="C59" s="16" t="n"/>
       <c r="D59" s="4" t="n"/>
       <c r="E59" s="4" t="n"/>
       <c r="F59" s="12" t="n"/>
@@ -1559,7 +1548,7 @@
     <row r="60">
       <c r="A60" s="3" t="n"/>
       <c r="B60" s="4" t="n"/>
-      <c r="C60" s="4" t="n"/>
+      <c r="C60" s="16" t="n"/>
       <c r="D60" s="4" t="n"/>
       <c r="E60" s="4" t="n"/>
       <c r="F60" s="12" t="n"/>
@@ -1568,7 +1557,7 @@
     <row r="61">
       <c r="A61" s="3" t="n"/>
       <c r="B61" s="4" t="n"/>
-      <c r="C61" s="4" t="n"/>
+      <c r="C61" s="16" t="n"/>
       <c r="D61" s="4" t="n"/>
       <c r="E61" s="4" t="n"/>
       <c r="F61" s="12" t="n"/>
@@ -1577,7 +1566,7 @@
     <row r="62">
       <c r="A62" s="3" t="n"/>
       <c r="B62" s="4" t="n"/>
-      <c r="C62" s="4" t="n"/>
+      <c r="C62" s="16" t="n"/>
       <c r="D62" s="4" t="n"/>
       <c r="E62" s="4" t="n"/>
       <c r="F62" s="12" t="n"/>
@@ -1586,7 +1575,7 @@
     <row r="63">
       <c r="A63" s="3" t="n"/>
       <c r="B63" s="4" t="n"/>
-      <c r="C63" s="4" t="n"/>
+      <c r="C63" s="16" t="n"/>
       <c r="D63" s="4" t="n"/>
       <c r="E63" s="4" t="n"/>
       <c r="F63" s="12" t="n"/>
@@ -1595,7 +1584,7 @@
     <row r="64">
       <c r="A64" s="3" t="n"/>
       <c r="B64" s="4" t="n"/>
-      <c r="C64" s="4" t="n"/>
+      <c r="C64" s="16" t="n"/>
       <c r="D64" s="4" t="n"/>
       <c r="E64" s="4" t="n"/>
       <c r="F64" s="12" t="n"/>
@@ -1604,7 +1593,7 @@
     <row r="65">
       <c r="A65" s="3" t="n"/>
       <c r="B65" s="4" t="n"/>
-      <c r="C65" s="4" t="n"/>
+      <c r="C65" s="16" t="n"/>
       <c r="D65" s="4" t="n"/>
       <c r="E65" s="4" t="n"/>
       <c r="F65" s="12" t="n"/>
@@ -1613,7 +1602,7 @@
     <row r="66">
       <c r="A66" s="3" t="n"/>
       <c r="B66" s="4" t="n"/>
-      <c r="C66" s="4" t="n"/>
+      <c r="C66" s="16" t="n"/>
       <c r="D66" s="4" t="n"/>
       <c r="E66" s="4" t="n"/>
       <c r="F66" s="12" t="n"/>
@@ -1622,7 +1611,7 @@
     <row r="67">
       <c r="A67" s="3" t="n"/>
       <c r="B67" s="4" t="n"/>
-      <c r="C67" s="4" t="n"/>
+      <c r="C67" s="16" t="n"/>
       <c r="D67" s="4" t="n"/>
       <c r="E67" s="4" t="n"/>
       <c r="F67" s="12" t="n"/>
@@ -1631,7 +1620,7 @@
     <row r="68">
       <c r="A68" s="3" t="n"/>
       <c r="B68" s="4" t="n"/>
-      <c r="C68" s="4" t="n"/>
+      <c r="C68" s="16" t="n"/>
       <c r="D68" s="4" t="n"/>
       <c r="E68" s="4" t="n"/>
       <c r="F68" s="12" t="n"/>
@@ -1640,7 +1629,7 @@
     <row r="69">
       <c r="A69" s="3" t="n"/>
       <c r="B69" s="4" t="n"/>
-      <c r="C69" s="4" t="n"/>
+      <c r="C69" s="16" t="n"/>
       <c r="D69" s="4" t="n"/>
       <c r="E69" s="4" t="n"/>
       <c r="F69" s="12" t="n"/>
@@ -1649,7 +1638,7 @@
     <row r="70">
       <c r="A70" s="3" t="n"/>
       <c r="B70" s="4" t="n"/>
-      <c r="C70" s="4" t="n"/>
+      <c r="C70" s="16" t="n"/>
       <c r="D70" s="4" t="n"/>
       <c r="E70" s="4" t="n"/>
       <c r="F70" s="12" t="n"/>
@@ -1658,7 +1647,7 @@
     <row r="71">
       <c r="A71" s="3" t="n"/>
       <c r="B71" s="4" t="n"/>
-      <c r="C71" s="4" t="n"/>
+      <c r="C71" s="16" t="n"/>
       <c r="D71" s="4" t="n"/>
       <c r="E71" s="4" t="n"/>
       <c r="F71" s="12" t="n"/>
@@ -1667,7 +1656,7 @@
     <row r="72">
       <c r="A72" s="3" t="n"/>
       <c r="B72" s="4" t="n"/>
-      <c r="C72" s="4" t="n"/>
+      <c r="C72" s="16" t="n"/>
       <c r="D72" s="4" t="n"/>
       <c r="E72" s="4" t="n"/>
       <c r="F72" s="12" t="n"/>
@@ -1676,7 +1665,7 @@
     <row r="73">
       <c r="A73" s="3" t="n"/>
       <c r="B73" s="4" t="n"/>
-      <c r="C73" s="4" t="n"/>
+      <c r="C73" s="16" t="n"/>
       <c r="D73" s="4" t="n"/>
       <c r="E73" s="4" t="n"/>
       <c r="F73" s="12" t="n"/>
@@ -1685,7 +1674,7 @@
     <row r="74">
       <c r="A74" s="3" t="n"/>
       <c r="B74" s="4" t="n"/>
-      <c r="C74" s="4" t="n"/>
+      <c r="C74" s="16" t="n"/>
       <c r="D74" s="4" t="n"/>
       <c r="E74" s="4" t="n"/>
       <c r="F74" s="12" t="n"/>
@@ -1694,7 +1683,7 @@
     <row r="75">
       <c r="A75" s="3" t="n"/>
       <c r="B75" s="4" t="n"/>
-      <c r="C75" s="4" t="n"/>
+      <c r="C75" s="16" t="n"/>
       <c r="D75" s="4" t="n"/>
       <c r="E75" s="4" t="n"/>
       <c r="F75" s="12" t="n"/>
@@ -1703,7 +1692,7 @@
     <row r="76">
       <c r="A76" s="3" t="n"/>
       <c r="B76" s="4" t="n"/>
-      <c r="C76" s="4" t="n"/>
+      <c r="C76" s="16" t="n"/>
       <c r="D76" s="4" t="n"/>
       <c r="E76" s="4" t="n"/>
       <c r="F76" s="12" t="n"/>
@@ -1712,7 +1701,7 @@
     <row r="77">
       <c r="A77" s="3" t="n"/>
       <c r="B77" s="4" t="n"/>
-      <c r="C77" s="4" t="n"/>
+      <c r="C77" s="16" t="n"/>
       <c r="D77" s="4" t="n"/>
       <c r="E77" s="4" t="n"/>
       <c r="F77" s="12" t="n"/>
@@ -1721,7 +1710,7 @@
     <row r="78">
       <c r="A78" s="3" t="n"/>
       <c r="B78" s="4" t="n"/>
-      <c r="C78" s="4" t="n"/>
+      <c r="C78" s="16" t="n"/>
       <c r="D78" s="4" t="n"/>
       <c r="E78" s="4" t="n"/>
       <c r="F78" s="12" t="n"/>
@@ -1730,7 +1719,7 @@
     <row r="79">
       <c r="A79" s="3" t="n"/>
       <c r="B79" s="4" t="n"/>
-      <c r="C79" s="4" t="n"/>
+      <c r="C79" s="16" t="n"/>
       <c r="D79" s="4" t="n"/>
       <c r="E79" s="4" t="n"/>
       <c r="F79" s="12" t="n"/>
@@ -1739,7 +1728,7 @@
     <row r="80">
       <c r="A80" s="3" t="n"/>
       <c r="B80" s="4" t="n"/>
-      <c r="C80" s="4" t="n"/>
+      <c r="C80" s="16" t="n"/>
       <c r="D80" s="4" t="n"/>
       <c r="E80" s="4" t="n"/>
       <c r="F80" s="12" t="n"/>
@@ -1748,7 +1737,7 @@
     <row r="81">
       <c r="A81" s="3" t="n"/>
       <c r="B81" s="4" t="n"/>
-      <c r="C81" s="4" t="n"/>
+      <c r="C81" s="16" t="n"/>
       <c r="D81" s="4" t="n"/>
       <c r="E81" s="4" t="n"/>
       <c r="F81" s="12" t="n"/>
@@ -1757,7 +1746,7 @@
     <row r="82">
       <c r="A82" s="3" t="n"/>
       <c r="B82" s="4" t="n"/>
-      <c r="C82" s="4" t="n"/>
+      <c r="C82" s="16" t="n"/>
       <c r="D82" s="4" t="n"/>
       <c r="E82" s="4" t="n"/>
       <c r="F82" s="12" t="n"/>
@@ -1766,7 +1755,7 @@
     <row r="83">
       <c r="A83" s="3" t="n"/>
       <c r="B83" s="4" t="n"/>
-      <c r="C83" s="4" t="n"/>
+      <c r="C83" s="16" t="n"/>
       <c r="D83" s="4" t="n"/>
       <c r="E83" s="4" t="n"/>
       <c r="F83" s="12" t="n"/>
@@ -1775,7 +1764,7 @@
     <row r="84">
       <c r="A84" s="3" t="n"/>
       <c r="B84" s="4" t="n"/>
-      <c r="C84" s="4" t="n"/>
+      <c r="C84" s="16" t="n"/>
       <c r="D84" s="4" t="n"/>
       <c r="E84" s="4" t="n"/>
       <c r="F84" s="12" t="n"/>
@@ -1784,7 +1773,7 @@
     <row r="85">
       <c r="A85" s="3" t="n"/>
       <c r="B85" s="4" t="n"/>
-      <c r="C85" s="4" t="n"/>
+      <c r="C85" s="16" t="n"/>
       <c r="D85" s="4" t="n"/>
       <c r="E85" s="4" t="n"/>
       <c r="F85" s="12" t="n"/>
@@ -1793,7 +1782,7 @@
     <row r="86">
       <c r="A86" s="3" t="n"/>
       <c r="B86" s="4" t="n"/>
-      <c r="C86" s="4" t="n"/>
+      <c r="C86" s="16" t="n"/>
       <c r="D86" s="4" t="n"/>
       <c r="E86" s="4" t="n"/>
       <c r="F86" s="12" t="n"/>
@@ -1802,7 +1791,7 @@
     <row r="87">
       <c r="A87" s="3" t="n"/>
       <c r="B87" s="4" t="n"/>
-      <c r="C87" s="4" t="n"/>
+      <c r="C87" s="16" t="n"/>
       <c r="D87" s="4" t="n"/>
       <c r="E87" s="4" t="n"/>
       <c r="F87" s="12" t="n"/>
@@ -1811,7 +1800,7 @@
     <row r="88">
       <c r="A88" s="3" t="n"/>
       <c r="B88" s="4" t="n"/>
-      <c r="C88" s="4" t="n"/>
+      <c r="C88" s="16" t="n"/>
       <c r="D88" s="4" t="n"/>
       <c r="E88" s="4" t="n"/>
       <c r="F88" s="12" t="n"/>
@@ -1820,7 +1809,7 @@
     <row r="89">
       <c r="A89" s="3" t="n"/>
       <c r="B89" s="4" t="n"/>
-      <c r="C89" s="4" t="n"/>
+      <c r="C89" s="16" t="n"/>
       <c r="D89" s="4" t="n"/>
       <c r="E89" s="4" t="n"/>
       <c r="F89" s="12" t="n"/>
@@ -1829,7 +1818,7 @@
     <row r="90">
       <c r="A90" s="3" t="n"/>
       <c r="B90" s="4" t="n"/>
-      <c r="C90" s="4" t="n"/>
+      <c r="C90" s="16" t="n"/>
       <c r="D90" s="4" t="n"/>
       <c r="E90" s="4" t="n"/>
       <c r="F90" s="12" t="n"/>
@@ -1838,7 +1827,7 @@
     <row r="91">
       <c r="A91" s="3" t="n"/>
       <c r="B91" s="4" t="n"/>
-      <c r="C91" s="4" t="n"/>
+      <c r="C91" s="16" t="n"/>
       <c r="D91" s="4" t="n"/>
       <c r="E91" s="4" t="n"/>
       <c r="F91" s="12" t="n"/>
@@ -1847,7 +1836,7 @@
     <row r="92">
       <c r="A92" s="3" t="n"/>
       <c r="B92" s="4" t="n"/>
-      <c r="C92" s="4" t="n"/>
+      <c r="C92" s="16" t="n"/>
       <c r="D92" s="4" t="n"/>
       <c r="E92" s="4" t="n"/>
       <c r="F92" s="12" t="n"/>
@@ -1856,7 +1845,7 @@
     <row r="93">
       <c r="A93" s="3" t="n"/>
       <c r="B93" s="4" t="n"/>
-      <c r="C93" s="4" t="n"/>
+      <c r="C93" s="16" t="n"/>
       <c r="D93" s="4" t="n"/>
       <c r="E93" s="4" t="n"/>
       <c r="F93" s="12" t="n"/>
@@ -1865,7 +1854,7 @@
     <row r="94">
       <c r="A94" s="3" t="n"/>
       <c r="B94" s="4" t="n"/>
-      <c r="C94" s="4" t="n"/>
+      <c r="C94" s="16" t="n"/>
       <c r="D94" s="4" t="n"/>
       <c r="E94" s="4" t="n"/>
       <c r="F94" s="12" t="n"/>
@@ -1874,7 +1863,7 @@
     <row r="95">
       <c r="A95" s="3" t="n"/>
       <c r="B95" s="4" t="n"/>
-      <c r="C95" s="4" t="n"/>
+      <c r="C95" s="16" t="n"/>
       <c r="D95" s="4" t="n"/>
       <c r="E95" s="4" t="n"/>
       <c r="F95" s="12" t="n"/>
@@ -1883,7 +1872,7 @@
     <row r="96">
       <c r="A96" s="3" t="n"/>
       <c r="B96" s="4" t="n"/>
-      <c r="C96" s="4" t="n"/>
+      <c r="C96" s="16" t="n"/>
       <c r="D96" s="4" t="n"/>
       <c r="E96" s="4" t="n"/>
       <c r="F96" s="12" t="n"/>
@@ -1892,7 +1881,7 @@
     <row r="97">
       <c r="A97" s="3" t="n"/>
       <c r="B97" s="4" t="n"/>
-      <c r="C97" s="4" t="n"/>
+      <c r="C97" s="16" t="n"/>
       <c r="D97" s="4" t="n"/>
       <c r="E97" s="4" t="n"/>
       <c r="F97" s="12" t="n"/>
@@ -1901,7 +1890,7 @@
     <row r="98">
       <c r="A98" s="3" t="n"/>
       <c r="B98" s="4" t="n"/>
-      <c r="C98" s="4" t="n"/>
+      <c r="C98" s="16" t="n"/>
       <c r="D98" s="4" t="n"/>
       <c r="E98" s="4" t="n"/>
       <c r="F98" s="12" t="n"/>
@@ -1910,7 +1899,7 @@
     <row r="99">
       <c r="A99" s="3" t="n"/>
       <c r="B99" s="4" t="n"/>
-      <c r="C99" s="4" t="n"/>
+      <c r="C99" s="16" t="n"/>
       <c r="D99" s="4" t="n"/>
       <c r="E99" s="4" t="n"/>
       <c r="F99" s="12" t="n"/>
@@ -1919,7 +1908,7 @@
     <row r="100">
       <c r="A100" s="3" t="n"/>
       <c r="B100" s="4" t="n"/>
-      <c r="C100" s="4" t="n"/>
+      <c r="C100" s="16" t="n"/>
       <c r="D100" s="4" t="n"/>
       <c r="E100" s="4" t="n"/>
       <c r="F100" s="12" t="n"/>
@@ -1928,7 +1917,7 @@
     <row r="101">
       <c r="A101" s="3" t="n"/>
       <c r="B101" s="4" t="n"/>
-      <c r="C101" s="4" t="n"/>
+      <c r="C101" s="16" t="n"/>
       <c r="D101" s="4" t="n"/>
       <c r="E101" s="4" t="n"/>
       <c r="F101" s="12" t="n"/>
